--- a/materials/reading-ranger/stimuli/passage-error-excels/set-9a/pencils_9g.xlsx
+++ b/materials/reading-ranger/stimuli/passage-error-excels/set-9a/pencils_9g.xlsx
@@ -1262,7 +1262,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1352,8 +1352,6 @@
         <u val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1367,7 +1365,6 @@
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1381,7 +1378,6 @@
           <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1863,7 +1859,7 @@
         <v>49</v>
       </c>
       <c r="CX1" s="3"/>
-      <c r="CY1" s="4"/>
+      <c r="CY1" s="3"/>
       <c r="CZ1" s="4" t="s">
         <v>50</v>
       </c>
@@ -19242,7 +19238,7 @@
     <mergeCell ref="CK1:CL1"/>
     <mergeCell ref="CR1:CS1"/>
     <mergeCell ref="CT1:CV1"/>
-    <mergeCell ref="CW1:CX1"/>
+    <mergeCell ref="CW1:CY1"/>
     <mergeCell ref="DA1:DB1"/>
     <mergeCell ref="DC1:DD1"/>
     <mergeCell ref="DI1:DK1"/>

--- a/materials/reading-ranger/stimuli/passage-error-excels/set-9a/pencils_9g.xlsx
+++ b/materials/reading-ranger/stimuli/passage-error-excels/set-9a/pencils_9g.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="285">
   <si>
     <t xml:space="preserve">The</t>
   </si>
@@ -433,232 +433,103 @@
     <t xml:space="preserve">intent.</t>
   </si>
   <si>
-    <t xml:space="preserve">these</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cakes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reveals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">their</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cupcake's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">should</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">velvety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lush,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promising</t>
+    <t xml:space="preserve">pen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cil,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dane,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tions,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cil</t>
   </si>
   <si>
     <t xml:space="preserve">in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">each</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mouthful.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Its</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firm,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reflecting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">journey.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harmonious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">play</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flavors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cupcake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showcases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expertise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">making.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recognizing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ingenuity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">behind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cupcakes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remarkable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gastronomic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voyage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cil,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dane,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">con</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tions,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cil</t>
   </si>
   <si>
     <t xml:space="preserve">stru</t>
@@ -2379,244 +2250,116 @@
       <c r="MZ1" s="3"/>
       <c r="NA1" s="3"/>
       <c r="NB1" s="3"/>
-      <c r="NC1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="ND1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="NE1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="NF1" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="NC1" s="4"/>
+      <c r="ND1" s="4"/>
+      <c r="NE1" s="4"/>
+      <c r="NF1" s="3"/>
       <c r="NG1" s="3"/>
-      <c r="NH1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="NI1" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="NH1" s="4"/>
+      <c r="NI1" s="3"/>
       <c r="NJ1" s="3"/>
       <c r="NK1" s="3"/>
-      <c r="NL1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="NM1" s="3" t="s">
-        <v>143</v>
-      </c>
+      <c r="NL1" s="4"/>
+      <c r="NM1" s="3"/>
       <c r="NN1" s="3"/>
-      <c r="NO1" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="NP1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="NQ1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="NR1" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="NO1" s="4"/>
+      <c r="NP1" s="4"/>
+      <c r="NQ1" s="4"/>
+      <c r="NR1" s="3"/>
       <c r="NS1" s="3"/>
       <c r="NT1" s="3"/>
-      <c r="NU1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="NV1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="NW1" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="NU1" s="4"/>
+      <c r="NV1" s="4"/>
+      <c r="NW1" s="3"/>
       <c r="NX1" s="3"/>
       <c r="NY1" s="3"/>
-      <c r="NZ1" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="NZ1" s="3"/>
       <c r="OA1" s="3"/>
       <c r="OB1" s="3"/>
-      <c r="OC1" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="OD1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="OE1" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="OC1" s="4"/>
+      <c r="OD1" s="4"/>
+      <c r="OE1" s="3"/>
       <c r="OF1" s="3"/>
-      <c r="OG1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="OH1" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="OG1" s="4"/>
+      <c r="OH1" s="3"/>
       <c r="OI1" s="3"/>
-      <c r="OJ1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="OK1" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="OJ1" s="4"/>
+      <c r="OK1" s="3"/>
       <c r="OL1" s="3"/>
-      <c r="OM1" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="OM1" s="3"/>
       <c r="ON1" s="3"/>
-      <c r="OO1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="OP1" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="OQ1" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="OO1" s="4"/>
+      <c r="OP1" s="4"/>
+      <c r="OQ1" s="3"/>
       <c r="OR1" s="3"/>
       <c r="OS1" s="3"/>
-      <c r="OT1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="OU1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="OV1" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="OW1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="OX1" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="OT1" s="4"/>
+      <c r="OU1" s="4"/>
+      <c r="OV1" s="4"/>
+      <c r="OW1" s="4"/>
+      <c r="OX1" s="3"/>
       <c r="OY1" s="3"/>
-      <c r="OZ1" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="OZ1" s="3"/>
       <c r="PA1" s="3"/>
-      <c r="PB1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="PC1" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="PB1" s="4"/>
+      <c r="PC1" s="3"/>
       <c r="PD1" s="3"/>
       <c r="PE1" s="3"/>
       <c r="PF1" s="3"/>
-      <c r="PG1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="PH1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="PI1" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="PG1" s="4"/>
+      <c r="PH1" s="4"/>
+      <c r="PI1" s="3"/>
       <c r="PJ1" s="3"/>
-      <c r="PK1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="PL1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="PM1" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="PN1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="PO1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="PP1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="PQ1" s="3" t="s">
-        <v>167</v>
-      </c>
+      <c r="PK1" s="4"/>
+      <c r="PL1" s="4"/>
+      <c r="PM1" s="4"/>
+      <c r="PN1" s="4"/>
+      <c r="PO1" s="3"/>
+      <c r="PP1" s="3"/>
+      <c r="PQ1" s="3"/>
       <c r="PR1" s="3"/>
       <c r="PS1" s="3"/>
-      <c r="PT1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="PU1" s="3" t="s">
-        <v>168</v>
-      </c>
+      <c r="PT1" s="4"/>
+      <c r="PU1" s="3"/>
       <c r="PV1" s="3"/>
       <c r="PW1" s="3"/>
-      <c r="PX1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="PY1" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="PX1" s="4"/>
+      <c r="PY1" s="3"/>
       <c r="PZ1" s="3"/>
       <c r="QA1" s="3"/>
-      <c r="QB1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="QC1" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="QB1" s="4"/>
+      <c r="QC1" s="3"/>
       <c r="QD1" s="3"/>
-      <c r="QE1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="QF1" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="QE1" s="4"/>
+      <c r="QF1" s="3"/>
       <c r="QG1" s="3"/>
-      <c r="QH1" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="QH1" s="3"/>
       <c r="QI1" s="3"/>
       <c r="QJ1" s="3"/>
       <c r="QK1" s="3"/>
-      <c r="QL1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="QM1" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="QL1" s="4"/>
+      <c r="QM1" s="3"/>
       <c r="QN1" s="3"/>
       <c r="QO1" s="3"/>
       <c r="QP1" s="3"/>
       <c r="QQ1" s="3"/>
-      <c r="QR1" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="QR1" s="3"/>
       <c r="QS1" s="3"/>
-      <c r="QT1" s="3" t="s">
-        <v>175</v>
-      </c>
+      <c r="QT1" s="3"/>
       <c r="QU1" s="3"/>
-      <c r="QV1" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="QV1" s="3"/>
       <c r="QW1" s="3"/>
-      <c r="QX1" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="QY1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="QZ1" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="QX1" s="4"/>
+      <c r="QY1" s="4"/>
+      <c r="QZ1" s="3"/>
       <c r="RA1" s="3"/>
       <c r="RB1" s="3"/>
       <c r="RC1" s="3"/>
-      <c r="RD1" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="RD1" s="3"/>
       <c r="RE1" s="3"/>
       <c r="RF1" s="3"/>
       <c r="RG1" s="3"/>
-      <c r="RH1" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="RH1" s="3"/>
       <c r="RI1" s="3"/>
       <c r="RJ1" s="4"/>
       <c r="RK1" s="4"/>
@@ -2782,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
@@ -2797,43 +2540,43 @@
         <v>4</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>11</v>
@@ -2845,55 +2588,55 @@
         <v>7</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="AF2" s="7" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="AI2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="AL2" s="7" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="AM2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="AN2" s="7" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="AO2" s="7" t="s">
         <v>18</v>
@@ -2929,31 +2672,31 @@
         <v>14</v>
       </c>
       <c r="AZ2" s="7" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="BA2" s="7" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="BB2" s="7" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="BC2" s="7" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="BD2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="BE2" s="7" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="BF2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="BH2" s="7" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="BI2" s="7" t="s">
         <v>29</v>
@@ -2965,67 +2708,67 @@
         <v>30</v>
       </c>
       <c r="BL2" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="BM2" s="7" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="BN2" s="7" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="BO2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="BP2" s="7" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="BQ2" s="7" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="BR2" s="7" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="BS2" s="7" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="BT2" s="7" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="BU2" s="7" t="s">
         <v>34</v>
       </c>
       <c r="BV2" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="BW2" s="7" t="s">
         <v>76</v>
       </c>
       <c r="BX2" s="7" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="BY2" s="7" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="BZ2" s="7" t="s">
         <v>37</v>
       </c>
       <c r="CA2" s="7" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="CB2" s="7" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="CC2" s="7" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="CD2" s="7" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="CE2" s="7" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="CF2" s="7" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="CG2" s="7" t="s">
         <v>40</v>
@@ -3034,16 +2777,16 @@
         <v>22</v>
       </c>
       <c r="CI2" s="7" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="CJ2" s="8" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="CK2" s="7" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="CL2" s="7" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="CM2" s="7" t="s">
         <v>43</v>
@@ -3061,43 +2804,43 @@
         <v>9</v>
       </c>
       <c r="CR2" s="7" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="CS2" s="7" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="CT2" s="7" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="CU2" s="7" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="CV2" s="7" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="CW2" s="7" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="CX2" s="7" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="CY2" s="7" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="CZ2" s="7" t="s">
         <v>50</v>
       </c>
       <c r="DA2" s="7" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="DB2" s="7" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="DC2" s="7" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="DD2" s="7" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="DE2" s="8" t="s">
         <v>0</v>
@@ -3112,37 +2855,37 @@
         <v>9</v>
       </c>
       <c r="DI2" s="7" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="DJ2" s="7" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="DK2" s="7" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="DL2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="DM2" s="7" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="DN2" s="7" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="DO2" s="7" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="DP2" s="7" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="DQ2" s="7" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="DR2" s="7" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="DS2" s="7" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="DT2" s="7" t="s">
         <v>58</v>
@@ -3160,43 +2903,43 @@
         <v>14</v>
       </c>
       <c r="DY2" s="7" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="DZ2" s="8" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="EA2" s="7" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="EB2" s="7" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="EC2" s="7" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="ED2" s="7" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="EE2" s="7" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="EF2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="EG2" s="7" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="EH2" s="7" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="EI2" s="7" t="s">
         <v>65</v>
       </c>
       <c r="EJ2" s="7" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="EK2" s="7" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="EL2" s="7" t="s">
         <v>14</v>
@@ -3211,16 +2954,16 @@
         <v>69</v>
       </c>
       <c r="EP2" s="7" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="EQ2" s="7" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="ER2" s="7" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="ES2" s="7" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="ET2" s="7" t="s">
         <v>72</v>
@@ -3229,10 +2972,10 @@
         <v>73</v>
       </c>
       <c r="EV2" s="7" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="EW2" s="7" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="EX2" s="7" t="s">
         <v>3</v>
@@ -3247,13 +2990,13 @@
         <v>22</v>
       </c>
       <c r="FB2" s="7" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="FC2" s="7" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="FD2" s="7" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="FE2" s="7" t="s">
         <v>76</v>
@@ -3271,10 +3014,10 @@
         <v>79</v>
       </c>
       <c r="FJ2" s="7" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="FK2" s="7" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="FL2" s="7" t="s">
         <v>61</v>
@@ -3286,16 +3029,16 @@
         <v>90</v>
       </c>
       <c r="FO2" s="7" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="FP2" s="7" t="s">
         <v>83</v>
       </c>
       <c r="FQ2" s="7" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="FR2" s="7" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="FS2" s="8" t="s">
         <v>84</v>
@@ -3304,25 +3047,25 @@
         <v>23</v>
       </c>
       <c r="FU2" s="7" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="FV2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="FW2" s="7" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="FX2" s="7" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="FY2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="FZ2" s="7" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="GA2" s="7" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="GB2" s="7" t="s">
         <v>83</v>
@@ -3331,10 +3074,10 @@
         <v>7</v>
       </c>
       <c r="GD2" s="7" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="GE2" s="7" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="GF2" s="7" t="s">
         <v>89</v>
@@ -3346,19 +3089,19 @@
         <v>22</v>
       </c>
       <c r="GI2" s="7" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="GJ2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="GK2" s="7" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="GL2" s="7" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="GM2" s="7" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="GN2" s="7" t="s">
         <v>93</v>
@@ -3370,31 +3113,31 @@
         <v>94</v>
       </c>
       <c r="GQ2" s="7" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="GR2" s="7" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="GS2" s="7" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="GT2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="GU2" s="7" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="GV2" s="7" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="GW2" s="7" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="GX2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="GY2" s="7" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="GZ2" s="7" t="s">
         <v>98</v>
@@ -3403,13 +3146,13 @@
         <v>7</v>
       </c>
       <c r="HB2" s="7" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="HC2" s="7" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="HD2" s="7" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="HE2" s="7" t="s">
         <v>100</v>
@@ -3421,22 +3164,22 @@
         <v>22</v>
       </c>
       <c r="HH2" s="7" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="HI2" s="7" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="HJ2" s="7" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="HK2" s="7" t="s">
         <v>76</v>
       </c>
       <c r="HL2" s="7" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="HM2" s="8" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="HN2" s="7" t="s">
         <v>102</v>
@@ -3445,16 +3188,16 @@
         <v>103</v>
       </c>
       <c r="HP2" s="7" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="HQ2" s="7" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="HR2" s="7" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="HS2" s="7" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="HT2" s="7" t="s">
         <v>9</v>
@@ -3463,31 +3206,31 @@
         <v>7</v>
       </c>
       <c r="HV2" s="7" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="HW2" s="7" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="HX2" s="7" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="HY2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="HZ2" s="7" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="IA2" s="7" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="IB2" s="7" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="IC2" s="7" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="ID2" s="7" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="IE2" s="7" t="s">
         <v>12</v>
@@ -3496,16 +3239,16 @@
         <v>7</v>
       </c>
       <c r="IG2" s="7" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="IH2" s="7" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="II2" s="7" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="IJ2" s="7" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="IK2" s="7" t="s">
         <v>9</v>
@@ -3517,7 +3260,7 @@
         <v>22</v>
       </c>
       <c r="IN2" s="7" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="IO2" s="7" t="s">
         <v>112</v>
@@ -3532,46 +3275,46 @@
         <v>12</v>
       </c>
       <c r="IS2" s="7" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="IT2" s="7" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="IU2" s="7" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="IV2" s="7" t="s">
         <v>116</v>
       </c>
       <c r="IW2" s="7" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="IX2" s="7" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="IY2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="IZ2" s="7" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="JA2" s="7" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="JB2" s="7" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="JC2" s="7" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="JD2" s="7" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="JE2" s="7" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="JF2" s="7" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="JG2" s="8" t="s">
         <v>121</v>
@@ -3592,19 +3335,19 @@
         <v>22</v>
       </c>
       <c r="JM2" s="7" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="JN2" s="7" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="JO2" s="7" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="JP2" s="7" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="JQ2" s="7" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="JR2" s="7" t="s">
         <v>9</v>
@@ -3625,10 +3368,10 @@
         <v>128</v>
       </c>
       <c r="JX2" s="7" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="JY2" s="7" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="JZ2" s="8" t="s">
         <v>130</v>
@@ -3640,46 +3383,46 @@
         <v>131</v>
       </c>
       <c r="KC2" s="7" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="KD2" s="7" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="KE2" s="7" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="KF2" s="7" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="KG2" s="7" t="s">
         <v>40</v>
       </c>
       <c r="KH2" s="7" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="KI2" s="7" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="KJ2" s="7" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="KK2" s="7" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="KL2" s="7" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="KM2" s="7" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="KN2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="KO2" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="KP2" s="7" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="KQ2" s="7"/>
       <c r="KR2" s="7"/>
@@ -3754,7 +3497,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>0</v>
@@ -4731,7 +4474,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>0</v>
@@ -5708,7 +5451,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>0</v>
@@ -6685,7 +6428,7 @@
     </row>
     <row r="6" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="B6" s="15" t="n">
         <v>0</v>
@@ -7662,7 +7405,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>0</v>
@@ -8639,7 +8382,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>0</v>
@@ -9616,7 +9359,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>0</v>
@@ -10593,7 +10336,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>0</v>
@@ -11570,7 +11313,7 @@
     </row>
     <row r="11" s="23" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="B11" s="20" t="n">
         <v>0</v>
@@ -12547,7 +12290,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>0</v>
@@ -13524,7 +13267,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>0</v>
@@ -14501,7 +14244,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>0</v>
@@ -15478,7 +15221,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -15853,7 +15596,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -16312,2905 +16055,2905 @@
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="28"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="25"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="25"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="25"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="25"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="25"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="25"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="25"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="25"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="25"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="25"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="25"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="25"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="25"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="25"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="25"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="25"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="25"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="25"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="25"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="25"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="25"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="25"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="25"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="25"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="25"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="25"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="25"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="25"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="25"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="25"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="25"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="25"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="25"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="25"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="25"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="25"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="25"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="25"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="25"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="25"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="25"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="25"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="25"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="25"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="25"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="25"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="25"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="25"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="25"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="25"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="25"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="25"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="25"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="25"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="25"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="25"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="25"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="25"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="25"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="25"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="25"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="25"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="25"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="25"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="25"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="25"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="25"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="25"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="25"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="25"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="25"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="25"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="25"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="25"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="25"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="25"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="25"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="25"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="25"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="25"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="25"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="25"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="25"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="25"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="25"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="25"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="25"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="25"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="25"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="25"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="25"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="25"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="25"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="25"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="25"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="25"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="25"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="25"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="25"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="25"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="25"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="25"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="25"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="25"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="25"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="25"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="25"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="25"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="25"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="25"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="25"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="25"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="25"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="25"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="25"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="25"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="25"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="25"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="25"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="25"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="25"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="25"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="25"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="25"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="25"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="25"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="25"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="25"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="25"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="25"/>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="25"/>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="25"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="25"/>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="25"/>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="25"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="25"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="25"/>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="25"/>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="25"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="25"/>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="25"/>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="25"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="25"/>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="25"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="25"/>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="25"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="25"/>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="25"/>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="25"/>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="25"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="25"/>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="25"/>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="25"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="25"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="25"/>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="25"/>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="25"/>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="25"/>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="25"/>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="25"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="25"/>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="25"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="25"/>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="25"/>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="25"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="25"/>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="25"/>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="25"/>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="25"/>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="25"/>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="25"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="25"/>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="25"/>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="25"/>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="25"/>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="25"/>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="25"/>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="25"/>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="25"/>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="25"/>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="25"/>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="25"/>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="25"/>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="25"/>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="25"/>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="25"/>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="25"/>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="25"/>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="25"/>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="25"/>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="25"/>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="25"/>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="25"/>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="25"/>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="25"/>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="25"/>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="25"/>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="25"/>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="25"/>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="25"/>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="25"/>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="25"/>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="25"/>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="25"/>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="25"/>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="25"/>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="25"/>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="25"/>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="25"/>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="25"/>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="25"/>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="25"/>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="25"/>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="25"/>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="25"/>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="25"/>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="25"/>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="25"/>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="25"/>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="25"/>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="25"/>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="25"/>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="25"/>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="25"/>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="25"/>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="25"/>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="25"/>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="25"/>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="25"/>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="25"/>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="25"/>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="25"/>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="25"/>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="25"/>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="25"/>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="25"/>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="25"/>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="25"/>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="25"/>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="25"/>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="25"/>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="25"/>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="25"/>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="25"/>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="25"/>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="25"/>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="25"/>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="25"/>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="25"/>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="25"/>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="25"/>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="25"/>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="25"/>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="25"/>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="25"/>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="25"/>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="25"/>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="25"/>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="25"/>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="25"/>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="25"/>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="25"/>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="25"/>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="25"/>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="25"/>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="25"/>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="25"/>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="25"/>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="25"/>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="25"/>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="25"/>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="25"/>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="25"/>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="25"/>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="25"/>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="25"/>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="25"/>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="25"/>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="25"/>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="25"/>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="25"/>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="25"/>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="25"/>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="25"/>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="25"/>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="25"/>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="25"/>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="25"/>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="25"/>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="25"/>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="25"/>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="25"/>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="25"/>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="25"/>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="25"/>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="25"/>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="25"/>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="25"/>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="25"/>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="25"/>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="25"/>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="25"/>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="25"/>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="25"/>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="25"/>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="25"/>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="25"/>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="25"/>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="25"/>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="25"/>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="25"/>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="25"/>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="25"/>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="25"/>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="25"/>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="25"/>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="25"/>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="25"/>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="25"/>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="25"/>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="25"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="25"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="25"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="25"/>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="25"/>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="25"/>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="25"/>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="25"/>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="25"/>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="25"/>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="25"/>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="25"/>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="25"/>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="25"/>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="25"/>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="25"/>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="25"/>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="25"/>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="25"/>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="25"/>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="25"/>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="25"/>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="25"/>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="25"/>
     </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="25"/>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="25"/>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="25"/>
     </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="25"/>
     </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="25"/>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="25"/>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="25"/>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="25"/>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="25"/>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="25"/>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="25"/>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="25"/>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="25"/>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="25"/>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="25"/>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="25"/>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="25"/>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="25"/>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="25"/>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="25"/>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="25"/>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="25"/>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="25"/>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="25"/>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="25"/>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="25"/>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="25"/>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="25"/>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="25"/>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="25"/>
     </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="25"/>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="25"/>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="25"/>
     </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="25"/>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="25"/>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="25"/>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="25"/>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="25"/>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="25"/>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="25"/>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="25"/>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="25"/>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="25"/>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="25"/>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="25"/>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="25"/>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="25"/>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="25"/>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="25"/>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="25"/>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="25"/>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="25"/>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="25"/>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="25"/>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="25"/>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="25"/>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="25"/>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="25"/>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="25"/>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="25"/>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="25"/>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="25"/>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="25"/>
     </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="25"/>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="25"/>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="25"/>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="25"/>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="25"/>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="25"/>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="25"/>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="25"/>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="25"/>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="25"/>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="25"/>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="25"/>
     </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="25"/>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="25"/>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="25"/>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="25"/>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="25"/>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="25"/>
     </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="25"/>
     </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="25"/>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="25"/>
     </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="25"/>
     </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="25"/>
     </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="25"/>
     </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="25"/>
     </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="25"/>
     </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="25"/>
     </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="25"/>
     </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="25"/>
     </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="25"/>
     </row>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="25"/>
     </row>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="25"/>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="25"/>
     </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="25"/>
     </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="25"/>
     </row>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="25"/>
     </row>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="25"/>
     </row>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="25"/>
     </row>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="25"/>
     </row>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="25"/>
     </row>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="25"/>
     </row>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="25"/>
     </row>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="25"/>
     </row>
-    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="25"/>
     </row>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="25"/>
     </row>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="25"/>
     </row>
-    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="25"/>
     </row>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="25"/>
     </row>
-    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="25"/>
     </row>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="25"/>
     </row>
-    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="25"/>
     </row>
-    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="25"/>
     </row>
-    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="25"/>
     </row>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="25"/>
     </row>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="25"/>
     </row>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="25"/>
     </row>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="25"/>
     </row>
-    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="25"/>
     </row>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="25"/>
     </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="25"/>
     </row>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="25"/>
     </row>
-    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="25"/>
     </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="25"/>
     </row>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="25"/>
     </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="25"/>
     </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="25"/>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="25"/>
     </row>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="25"/>
     </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="25"/>
     </row>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="25"/>
     </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="25"/>
     </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="25"/>
     </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="25"/>
     </row>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="25"/>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="25"/>
     </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="25"/>
     </row>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="25"/>
     </row>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="25"/>
     </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="25"/>
     </row>
-    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="25"/>
     </row>
-    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="25"/>
     </row>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="25"/>
     </row>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="25"/>
     </row>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="25"/>
     </row>
-    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="25"/>
     </row>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="25"/>
     </row>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="25"/>
     </row>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="25"/>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="25"/>
     </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="25"/>
     </row>
-    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="25"/>
     </row>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="25"/>
     </row>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="25"/>
     </row>
-    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="25"/>
     </row>
-    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="25"/>
     </row>
-    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="25"/>
     </row>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="25"/>
     </row>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="25"/>
     </row>
-    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="25"/>
     </row>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="25"/>
     </row>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="25"/>
     </row>
-    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="25"/>
     </row>
-    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="25"/>
     </row>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="25"/>
     </row>
-    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="25"/>
     </row>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="25"/>
     </row>
-    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="25"/>
     </row>
-    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="25"/>
     </row>
-    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="25"/>
     </row>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="25"/>
     </row>
-    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="25"/>
     </row>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="25"/>
     </row>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="25"/>
     </row>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="25"/>
     </row>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="25"/>
     </row>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="25"/>
     </row>
-    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="25"/>
     </row>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="25"/>
     </row>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="25"/>
     </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="25"/>
     </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="25"/>
     </row>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="25"/>
     </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="25"/>
     </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="25"/>
     </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="25"/>
     </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="25"/>
     </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="25"/>
     </row>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="25"/>
     </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="25"/>
     </row>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="25"/>
     </row>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="25"/>
     </row>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="25"/>
     </row>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="25"/>
     </row>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="25"/>
     </row>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="25"/>
     </row>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="25"/>
     </row>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="25"/>
     </row>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="25"/>
     </row>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="25"/>
     </row>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="25"/>
     </row>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="25"/>
     </row>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="25"/>
     </row>
-    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="25"/>
     </row>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="25"/>
     </row>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="25"/>
     </row>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="25"/>
     </row>
-    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="25"/>
     </row>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="25"/>
     </row>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="25"/>
     </row>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="25"/>
     </row>
-    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="25"/>
     </row>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="25"/>
     </row>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="25"/>
     </row>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="25"/>
     </row>
-    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="25"/>
     </row>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="25"/>
     </row>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="25"/>
     </row>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="25"/>
     </row>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="25"/>
     </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="25"/>
     </row>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="25"/>
     </row>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="25"/>
     </row>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="25"/>
     </row>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="25"/>
     </row>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="25"/>
     </row>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="25"/>
     </row>
-    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="25"/>
     </row>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="25"/>
     </row>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="25"/>
     </row>
-    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="25"/>
     </row>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="25"/>
     </row>
-    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="25"/>
     </row>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="25"/>
     </row>
-    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="25"/>
     </row>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="25"/>
     </row>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="25"/>
     </row>
-    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="25"/>
     </row>
-    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="25"/>
     </row>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="25"/>
     </row>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="25"/>
     </row>
-    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="25"/>
     </row>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="25"/>
     </row>
-    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="25"/>
     </row>
-    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="25"/>
     </row>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="25"/>
     </row>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="25"/>
     </row>
-    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="25"/>
     </row>
-    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="25"/>
     </row>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="25"/>
     </row>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="25"/>
     </row>
-    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="25"/>
     </row>
-    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="25"/>
     </row>
-    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="25"/>
     </row>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="25"/>
     </row>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="25"/>
     </row>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="25"/>
     </row>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="25"/>
     </row>
-    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="25"/>
     </row>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="25"/>
     </row>
-    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="25"/>
     </row>
-    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="25"/>
     </row>
-    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="25"/>
     </row>
-    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="25"/>
     </row>
-    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="25"/>
     </row>
-    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="25"/>
     </row>
-    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="25"/>
     </row>
-    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="25"/>
     </row>
-    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="25"/>
     </row>
-    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="25"/>
     </row>
-    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="25"/>
     </row>
-    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="25"/>
     </row>
-    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="25"/>
     </row>
-    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="25"/>
     </row>
-    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="25"/>
     </row>
-    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="25"/>
     </row>
-    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="25"/>
     </row>
-    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="25"/>
     </row>
-    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="25"/>
     </row>
-    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="25"/>
     </row>
-    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="25"/>
     </row>
-    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="25"/>
     </row>
-    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="25"/>
     </row>
-    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="25"/>
     </row>
-    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="25"/>
     </row>
-    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="25"/>
     </row>
-    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="25"/>
     </row>
-    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="25"/>
     </row>
-    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="25"/>
     </row>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="25"/>
     </row>
-    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="25"/>
     </row>
-    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="25"/>
     </row>
-    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="25"/>
     </row>
-    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="25"/>
     </row>
-    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="25"/>
     </row>
-    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="25"/>
     </row>
-    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="25"/>
     </row>
-    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="25"/>
     </row>
-    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="25"/>
     </row>
-    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="25"/>
     </row>
-    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="25"/>
     </row>
-    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="25"/>
     </row>
-    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="25"/>
     </row>
-    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="25"/>
     </row>
-    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="25"/>
     </row>
-    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="25"/>
     </row>
-    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="25"/>
     </row>
-    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="25"/>
     </row>
-    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="25"/>
     </row>
-    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="25"/>
     </row>
-    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="25"/>
     </row>
-    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="25"/>
     </row>
-    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="25"/>
     </row>
-    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="25"/>
     </row>
-    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="25"/>
     </row>
-    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="25"/>
     </row>
-    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="25"/>
     </row>
-    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="25"/>
     </row>
-    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="25"/>
     </row>
-    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="25"/>
     </row>
-    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="25"/>
     </row>
-    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="25"/>
     </row>
-    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="25"/>
     </row>
-    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="25"/>
     </row>
-    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="25"/>
     </row>
-    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="25"/>
     </row>
-    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="25"/>
     </row>
-    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="25"/>
     </row>
-    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="25"/>
     </row>
-    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="25"/>
     </row>
-    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="25"/>
     </row>
-    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="25"/>
     </row>
-    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="25"/>
     </row>
-    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="25"/>
     </row>
-    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="25"/>
     </row>
-    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="25"/>
     </row>
-    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="25"/>
     </row>
-    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="25"/>
     </row>
-    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="25"/>
     </row>
-    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="25"/>
     </row>
-    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="25"/>
     </row>
-    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="25"/>
     </row>
-    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="25"/>
     </row>
-    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="25"/>
     </row>
-    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="25"/>
     </row>
-    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="25"/>
     </row>
-    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="25"/>
     </row>
-    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="25"/>
     </row>
-    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="25"/>
     </row>
-    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="25"/>
     </row>
-    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="25"/>
     </row>
-    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="25"/>
     </row>
-    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="25"/>
     </row>
-    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="25"/>
     </row>
-    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="25"/>
     </row>
-    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="25"/>
     </row>
-    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="25"/>
     </row>
-    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="25"/>
     </row>
-    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="25"/>
     </row>
-    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="25"/>
     </row>
-    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="25"/>
     </row>
-    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="25"/>
     </row>
-    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="25"/>
     </row>
-    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="25"/>
     </row>
-    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="25"/>
     </row>
-    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="25"/>
     </row>
-    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="25"/>
     </row>
-    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="25"/>
     </row>
-    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="25"/>
     </row>
-    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="25"/>
     </row>
-    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="25"/>
     </row>
-    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="25"/>
     </row>
-    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="25"/>
     </row>
-    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="25"/>
     </row>
-    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="25"/>
     </row>
-    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="25"/>
     </row>
-    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="25"/>
     </row>
-    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="25"/>
     </row>
-    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="25"/>
     </row>
-    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="25"/>
     </row>
-    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="25"/>
     </row>
-    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="25"/>
     </row>
-    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="25"/>
     </row>
-    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="25"/>
     </row>
-    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="25"/>
     </row>
-    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="25"/>
     </row>
-    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="25"/>
     </row>
-    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="25"/>
     </row>
-    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="25"/>
     </row>
-    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="25"/>
     </row>
-    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="25"/>
     </row>
-    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="25"/>
     </row>
-    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="25"/>
     </row>
-    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="25"/>
     </row>
-    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="25"/>
     </row>
-    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="25"/>
     </row>
-    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="25"/>
     </row>
-    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="25"/>
     </row>
-    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="25"/>
     </row>
-    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="25"/>
     </row>
-    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="25"/>
     </row>
-    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="25"/>
     </row>
-    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="25"/>
     </row>
-    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="25"/>
     </row>
-    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="25"/>
     </row>
-    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="25"/>
     </row>
-    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="25"/>
     </row>
-    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="25"/>
     </row>
-    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="25"/>
     </row>
-    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="25"/>
     </row>
-    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="25"/>
     </row>
-    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="25"/>
     </row>
-    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="25"/>
     </row>
-    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="25"/>
     </row>
-    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="25"/>
     </row>
-    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="25"/>
     </row>
-    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="25"/>
     </row>
-    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="25"/>
     </row>
-    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="25"/>
     </row>
-    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="25"/>
     </row>
-    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="25"/>
     </row>
-    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="25"/>
     </row>
-    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="25"/>
     </row>
-    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="25"/>
     </row>
-    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="25"/>
     </row>
-    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="25"/>
     </row>
-    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="25"/>
     </row>
-    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="25"/>
     </row>
-    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="25"/>
     </row>
-    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="25"/>
     </row>
-    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="25"/>
     </row>
-    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="25"/>
     </row>
-    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="25"/>
     </row>
-    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="25"/>
     </row>
-    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="25"/>
     </row>
-    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="25"/>
     </row>
-    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="25"/>
     </row>
-    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="25"/>
     </row>
-    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="25"/>
     </row>
-    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="25"/>
     </row>
-    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="25"/>
     </row>
-    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="25"/>
     </row>
-    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="25"/>
     </row>
-    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="25"/>
     </row>
-    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="25"/>
     </row>
-    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="25"/>
     </row>
-    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="25"/>
     </row>
-    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="25"/>
     </row>
-    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="25"/>
     </row>
-    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="25"/>
     </row>
-    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="25"/>
     </row>
-    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="25"/>
     </row>
-    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="25"/>
     </row>
-    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="25"/>
     </row>
-    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="25"/>
     </row>
-    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="25"/>
     </row>
-    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="25"/>
     </row>
-    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="25"/>
     </row>
-    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="25"/>
     </row>
-    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="25"/>
     </row>
-    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="25"/>
     </row>
-    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="25"/>
     </row>
-    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="25"/>
     </row>
-    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="25"/>
     </row>
-    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="25"/>
     </row>
-    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="25"/>
     </row>
-    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="25"/>
     </row>
-    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="25"/>
     </row>
-    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="25"/>
     </row>
-    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="25"/>
     </row>
-    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="25"/>
     </row>
-    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="25"/>
     </row>
-    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="25"/>
     </row>
-    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="25"/>
     </row>
-    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="25"/>
     </row>
-    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="25"/>
     </row>
-    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="25"/>
     </row>
-    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="25"/>
     </row>
-    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="25"/>
     </row>
-    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="25"/>
     </row>
-    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="25"/>
     </row>
-    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="25"/>
     </row>
-    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="25"/>
     </row>
-    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="25"/>
     </row>
-    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="25"/>
     </row>
-    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="25"/>
     </row>
-    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="25"/>
     </row>
-    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="25"/>
     </row>
-    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="25"/>
     </row>
-    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="25"/>
     </row>
-    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="25"/>
     </row>
-    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="25"/>
     </row>
-    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="25"/>
     </row>
-    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="25"/>
     </row>
-    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="25"/>
     </row>
-    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="25"/>
     </row>
-    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="25"/>
     </row>
-    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="25"/>
     </row>
-    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="25"/>
     </row>
-    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="25"/>
     </row>
-    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="25"/>
     </row>
-    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="25"/>
     </row>
-    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="25"/>
     </row>
-    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="25"/>
     </row>
-    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="25"/>
     </row>
-    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="25"/>
     </row>
-    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="25"/>
     </row>
-    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="25"/>
     </row>
-    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="25"/>
     </row>
-    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="25"/>
     </row>
-    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="25"/>
     </row>
-    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="25"/>
     </row>
-    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="25"/>
     </row>
-    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="25"/>
     </row>
-    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="25"/>
     </row>
-    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="25"/>
     </row>
-    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="25"/>
     </row>
-    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="25"/>
     </row>
-    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="25"/>
     </row>
-    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="25"/>
     </row>
-    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="25"/>
     </row>
-    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="25"/>
     </row>
-    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="25"/>
     </row>
-    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="25"/>
     </row>
-    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="25"/>
     </row>
-    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="25"/>
     </row>
-    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="25"/>
     </row>
-    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="25"/>
     </row>
-    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="25"/>
     </row>
-    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="25"/>
     </row>
-    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="25"/>
     </row>
-    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="25"/>
     </row>
-    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="25"/>
     </row>
-    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="25"/>
     </row>
-    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="25"/>
     </row>
-    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="25"/>
     </row>
-    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="25"/>
     </row>
-    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="25"/>
     </row>
-    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="25"/>
     </row>
-    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="25"/>
     </row>
-    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="25"/>
     </row>
-    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="25"/>
     </row>
-    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="25"/>
     </row>
-    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="25"/>
     </row>
-    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="25"/>
     </row>
-    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="25"/>
     </row>
-    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="25"/>
     </row>
-    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="25"/>
     </row>
-    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="25"/>
     </row>
-    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="25"/>
     </row>
-    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="25"/>
     </row>
-    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="25"/>
     </row>
-    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="25"/>
     </row>
-    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="25"/>
     </row>
-    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="25"/>
     </row>
-    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="25"/>
     </row>
-    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="25"/>
     </row>
-    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="25"/>
     </row>
-    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="25"/>
     </row>
-    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="25"/>
     </row>
-    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="25"/>
     </row>
-    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="25"/>
     </row>
-    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="25"/>
     </row>
-    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="25"/>
     </row>
-    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="25"/>
     </row>
-    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="25"/>
     </row>
-    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="25"/>
     </row>
-    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="25"/>
     </row>
-    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="25"/>
     </row>
-    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="25"/>
     </row>
-    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="25"/>
     </row>
-    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="25"/>
     </row>
-    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="25"/>
     </row>
-    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="25"/>
     </row>
-    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="25"/>
     </row>
-    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="25"/>
     </row>
-    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="25"/>
     </row>
-    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="25"/>
     </row>
-    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="25"/>
     </row>
-    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="25"/>
     </row>
-    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="25"/>
     </row>
-    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="25"/>
     </row>
-    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="25"/>
     </row>
-    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="25"/>
     </row>
-    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="25"/>
     </row>
-    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="25"/>
     </row>
-    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="25"/>
     </row>
-    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="25"/>
     </row>
-    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="25"/>
     </row>
-    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="25"/>
     </row>
-    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="25"/>
     </row>
-    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="25"/>
     </row>
-    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="25"/>
     </row>
-    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="25"/>
     </row>
-    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="25"/>
     </row>
-    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="25"/>
     </row>
-    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="25"/>
     </row>
-    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="25"/>
     </row>
-    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="25"/>
     </row>
-    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="25"/>
     </row>
-    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="25"/>
     </row>
-    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="25"/>
     </row>
-    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="25"/>
     </row>
-    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="25"/>
     </row>
-    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="25"/>
     </row>
-    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="25"/>
     </row>
-    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="25"/>
     </row>
-    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="25"/>
     </row>
-    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="25"/>
     </row>
-    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="25"/>
     </row>
-    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="25"/>
     </row>
-    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="25"/>
     </row>
-    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="25"/>
     </row>
-    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="25"/>
     </row>
-    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="25"/>
     </row>
-    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="25"/>
     </row>
-    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="25"/>
     </row>
-    <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="25"/>
     </row>
-    <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="25"/>
     </row>
   </sheetData>
